--- a/CM_TD_1/TD_1_Data_time_series_AR.xlsx
+++ b/CM_TD_1/TD_1_Data_time_series_AR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlinardi\OneDrive - CY Cergy Paris Université\WORK\CERGY_UNIVERSITE_TRAVAIL\Enseignment\COURS\GESTION_TIME_SERIES\2024\CM_1_2\TD_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucergyfr-my.sharepoint.com/personal/michele_linardi_cyu_fr/Documents/WORK/CERGY_UNIVERSITE_TRAVAIL/Enseignment/COURS/GESTION_TIME_SERIES/2024/GestionSeriesTemporelles24-25/CM_TD_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D55BE2-51F7-435A-824F-63A46461BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{72D55BE2-51F7-435A-824F-63A46461BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9415CC-D27B-4812-86FF-C4A041F77285}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{40BCDC21-1A1C-4D59-A8EB-94BC0C5AD535}"/>
   </bookViews>
@@ -1483,3828 +1483,50 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>500496</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86692</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8586355" cy="2677636"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="ZoneTexte 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C40AC06-A245-4E74-B7AA-E2F76238020E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1290205" y="2788328"/>
-              <a:ext cx="8586355" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ACF (lag h) = </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>, </m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>h</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑆𝑡𝑑</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>.</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑒𝑣</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑆𝑡𝑑</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>.</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑒𝑣</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>h</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="ZoneTexte 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C40AC06-A245-4E74-B7AA-E2F76238020E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1290205" y="2788328"/>
-              <a:ext cx="8586355" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>ACF (lag h) = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ)))/(𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_𝑡)𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_(𝑡−ℎ)))</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>299952</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30928</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13515429" cy="2677636"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="ZoneTexte 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1070F1E7-021E-49F6-8DD8-2EE4CCE3363A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="299952" y="4173437"/>
-              <a:ext cx="13515429" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑆𝑡𝑑.𝐷𝑒v(X)= </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:rad>
-                    <m:radPr>
-                      <m:degHide m:val="on"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000">
-                          <a:solidFill>
-                            <a:srgbClr val="836967"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:radPr>
-                    <m:deg/>
-                    <m:e>
-                      <m:f>
-                        <m:fPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000">
-                              <a:solidFill>
-                                <a:srgbClr val="836967"/>
-                              </a:solidFill>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:fPr>
-                        <m:num>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>1</m:t>
-                          </m:r>
-                        </m:num>
-                        <m:den>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:den>
-                      </m:f>
-                      <m:nary>
-                        <m:naryPr>
-                          <m:chr m:val="∑"/>
-                          <m:limLoc m:val="undOvr"/>
-                          <m:grow m:val="on"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:naryPr>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="0">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>=1</m:t>
-                          </m:r>
-                        </m:sub>
-                        <m:sup>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:sup>
-                        <m:e>
-                          <m:sSup>
-                            <m:sSupPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:srgbClr val="836967"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSupPr>
-                            <m:e>
-                              <m:d>
-                                <m:dPr>
-                                  <m:ctrlPr>
-                                    <a:rPr lang="fr-FR" sz="4000" i="1">
-                                      <a:solidFill>
-                                        <a:srgbClr val="836967"/>
-                                      </a:solidFill>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                  </m:ctrlPr>
-                                </m:dPr>
-                                <m:e>
-                                  <m:sSub>
-                                    <m:sSubPr>
-                                      <m:ctrlPr>
-                                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                                          <a:solidFill>
-                                            <a:srgbClr val="836967"/>
-                                          </a:solidFill>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        </a:rPr>
-                                      </m:ctrlPr>
-                                    </m:sSubPr>
-                                    <m:e>
-                                      <m:r>
-                                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        </a:rPr>
-                                        <m:t>𝑥</m:t>
-                                      </m:r>
-                                    </m:e>
-                                    <m:sub>
-                                      <m:r>
-                                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        </a:rPr>
-                                        <m:t>𝑡</m:t>
-                                      </m:r>
-                                    </m:sub>
-                                  </m:sSub>
-                                  <m:r>
-                                    <a:rPr lang="fr-FR" sz="4000" i="0">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                    <m:t>−</m:t>
-                                  </m:r>
-                                  <m:r>
-                                    <a:rPr lang="fr-FR" sz="4000" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    </a:rPr>
-                                    <m:t>𝜇</m:t>
-                                  </m:r>
-                                </m:e>
-                              </m:d>
-                            </m:e>
-                            <m:sup>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="0">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>2</m:t>
-                              </m:r>
-                            </m:sup>
-                          </m:sSup>
-                        </m:e>
-                      </m:nary>
-                    </m:e>
-                  </m:rad>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝜇</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" i="0">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="836967"/>
-                          </a:solidFill>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑁</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:limLoc m:val="undOvr"/>
-                      <m:grow m:val="on"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑘</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" i="0">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>=1</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑁</m:t>
-                      </m:r>
-                    </m:sup>
-                    <m:e>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:srgbClr val="836967"/>
-                              </a:solidFill>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:e>
-                  </m:nary>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="ZoneTexte 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1070F1E7-021E-49F6-8DD8-2EE4CCE3363A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="299952" y="4173437"/>
-              <a:ext cx="13515429" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑆𝑡𝑑.𝐷𝑒v(X)= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑁 ∑129_(𝑡=1)^𝑁▒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡−𝜇)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>, </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜇=1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑁 ∑129_(𝑘=1)^𝑁▒𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡 </a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>643194</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AEDFA6-63EA-4A7C-BED1-6C81F0AFC3A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18016794" cy="10377055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>426348</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>110835</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11169907" cy="720437"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="ZoneTexte 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766B4A69-F4F4-457B-AA3E-937E54281B51}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="426348" y="1551708"/>
-              <a:ext cx="11169907" cy="720437"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>h</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> ≔</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑠</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>é</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑟𝑖𝑒𝑠</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑟𝑖𝑒</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑎𝑣𝑒𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑙𝑎𝑔</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>h</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="fr-FR" sz="4400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="ZoneTexte 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766B4A69-F4F4-457B-AA3E-937E54281B51}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="426348" y="1551708"/>
-              <a:ext cx="11169907" cy="720437"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋_(𝑡−ℎ)  ≔</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑠é𝑟𝑖𝑒𝑠 𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑟𝑖𝑒 𝑎𝑣𝑒𝑐 𝑙𝑎𝑔 ℎ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>159327</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>24245</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="12211050" cy="2677636"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842199CA-AF39-4A15-9241-22571322D5E7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="159327" y="5787736"/>
-              <a:ext cx="12211050" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>(</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑋</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑡</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑋</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑡</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>−</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>h</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>)</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:nary>
-                        <m:naryPr>
-                          <m:chr m:val="∑"/>
-                          <m:limLoc m:val="undOvr"/>
-                          <m:grow m:val="on"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:naryPr>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="0">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>=1</m:t>
-                          </m:r>
-                        </m:sub>
-                        <m:sup>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:sup>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>(</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑥</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑡</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="0">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝜇</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:sSub>
-                                <m:sSubPr>
-                                  <m:ctrlPr>
-                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                  </m:ctrlPr>
-                                </m:sSubPr>
-                                <m:e>
-                                  <m:r>
-                                    <m:rPr>
-                                      <m:sty m:val="p"/>
-                                    </m:rPr>
-                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                    <m:t>X</m:t>
-                                  </m:r>
-                                </m:e>
-                                <m:sub>
-                                  <m:r>
-                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                    <m:t>𝑡</m:t>
-                                  </m:r>
-                                </m:sub>
-                              </m:sSub>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>)</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:nary>
-                      <m:nary>
-                        <m:naryPr>
-                          <m:chr m:val="∑"/>
-                          <m:limLoc m:val="undOvr"/>
-                          <m:grow m:val="on"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:naryPr>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="0">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>=1</m:t>
-                          </m:r>
-                        </m:sub>
-                        <m:sup>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:sup>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>(</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑥</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑡</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>h</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" i="0">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:sSub>
-                                <m:sSubPr>
-                                  <m:ctrlPr>
-                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                  </m:ctrlPr>
-                                </m:sSubPr>
-                                <m:e>
-                                  <m:r>
-                                    <a:rPr lang="fr-FR" sz="4000" i="1">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                    <m:t>𝜇</m:t>
-                                  </m:r>
-                                </m:e>
-                                <m:sub>
-                                  <m:r>
-                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                      <a:solidFill>
-                                        <a:schemeClr val="tx1"/>
-                                      </a:solidFill>
-                                      <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      <a:cs typeface="+mn-cs"/>
-                                    </a:rPr>
-                                    <m:t>𝑋</m:t>
-                                  </m:r>
-                                </m:sub>
-                              </m:sSub>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑡</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>h</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>)</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:nary>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑁</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="ZoneTexte 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842199CA-AF39-4A15-9241-22571322D5E7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="159327" y="5787736"/>
-              <a:ext cx="12211050" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ))</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑129_(𝑡=1)^𝑁▒〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_𝑡−𝜇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_(X_𝑡 ))〗 ∑129_(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑡=1)^𝑁</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥_(𝑡</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−ℎ)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_𝑋〗_(𝑡−ℎ))〗)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑁</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>174418</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>124690</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="15177407" cy="2677636"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="ZoneTexte 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E4D683-41D3-4CFD-9241-60FED4F1CA97}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="174418" y="7869381"/>
-              <a:ext cx="15177407" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>PACF (lag h) = </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fr-FR" sz="4000" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
-                      </m:r>
-                      <m:d>
-                        <m:dPr>
-                          <m:endChr m:val="|"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>𝑋</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>𝑡</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>, </m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>𝑋</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>𝑡</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>−</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                </a:rPr>
-                                <m:t>h</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                        </m:e>
-                      </m:d>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−(</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>h</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−1)</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t> , …</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>, </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−1</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑆𝑡𝑑</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>.</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑒𝑣</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>|</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:d>
-                            <m:dPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:dPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>h</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−1</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:d>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>,…,  </m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−1</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑆𝑡𝑑</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>.</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐷𝑒𝑣</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>h</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>|</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−</m:t>
-                          </m:r>
-                          <m:d>
-                            <m:dPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:dPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>h</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−1</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:d>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>…</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>,</m:t>
-                      </m:r>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑋</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑡</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−1</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                      <m:r>
-                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="ZoneTexte 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E4D683-41D3-4CFD-9241-60FED4F1CA97}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="174418" y="7869381"/>
-              <a:ext cx="15177407" cy="2677636"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>PACF (lag h) = </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ) ┤| 𝑋_(𝑡−(ℎ−1))  , …〖, 𝑋〗_(𝑡−1)))/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_𝑡 |𝑋_(𝑡−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ℎ−1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,…,  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋_(𝑡−1))</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_(𝑡−ℎ) |</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋_(𝑡−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ℎ−1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>…</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋_(𝑡−1)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>))</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4000">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>273948</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9867579" cy="720437"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="ZoneTexte 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F583E-E2E5-475A-A565-8FC059A51562}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1063657" y="471054"/>
-              <a:ext cx="9867579" cy="720437"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑋</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> ≔</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑠</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>é</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑟𝑖𝑒𝑠</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑖𝑟𝑒</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> (</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑤𝑒𝑎𝑘𝑙𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="fr-FR" sz="4400">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="fr-FR" sz="4400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="ZoneTexte 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F583E-E2E5-475A-A565-8FC059A51562}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1063657" y="471054"/>
-              <a:ext cx="9867579" cy="720437"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ≔</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑠é𝑟𝑖𝑒𝑠 𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑖𝑟𝑒 (𝑤𝑒𝑎𝑘𝑙𝑦)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="4400" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:endParaRPr lang="fr-FR" sz="4400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7266,7 +3488,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CM_TD_1/TD_1_Data_time_series_AR.xlsx
+++ b/CM_TD_1/TD_1_Data_time_series_AR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucergyfr-my.sharepoint.com/personal/michele_linardi_cyu_fr/Documents/WORK/CERGY_UNIVERSITE_TRAVAIL/Enseignment/COURS/GESTION_TIME_SERIES/2024/GestionSeriesTemporelles24-25/CM_TD_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlinardi\OneDrive - CY Cergy Paris Université\WORK\CERGY_UNIVERSITE_TRAVAIL\Enseignment\COURS\GESTION_TIME_SERIES\2024\CM_1_2\TD_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{72D55BE2-51F7-435A-824F-63A46461BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9415CC-D27B-4812-86FF-C4A041F77285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC00A49-AFE3-474A-A3FA-4CF11705E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{40BCDC21-1A1C-4D59-A8EB-94BC0C5AD535}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{40BCDC21-1A1C-4D59-A8EB-94BC0C5AD535}"/>
   </bookViews>
   <sheets>
     <sheet name="Consignes" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -62,20 +62,29 @@
     <t>Dans l'onglet TD nous allons travailler sur la series temporelle Y qui  affiche l'evolution d' une certaine mesure tout au long tu temps (chaque jour)</t>
   </si>
   <si>
-    <t>4) Appliquer une régressione linaire à la versione intégré de la séries, on anlyse l'equation obtenu.</t>
+    <t>4) Calculer la PACF de la series, qu'est que on peut dire ?</t>
   </si>
   <si>
-    <t>5) Calculer la PACF de la series, qu'est que on peut dire ?</t>
+    <t>3) Créer le diagramme ACF de la series, qu'est que on peut dire ?</t>
   </si>
   <si>
-    <t>3) Calculer et créer le diagramme ACF de la series, qu'est que on peut dire ?</t>
+    <t>7) Calculer et visualiser les predictions et les erreurs</t>
+  </si>
+  <si>
+    <t>5) Appliquer une régressione linaire à la versione intégré de la séries, on anlyse l'equation obtenu.</t>
+  </si>
+  <si>
+    <t>6) Calculer l'ACF et la statistique de Ljung-Box des résidus (du modèle AR selectionnées)</t>
+  </si>
+  <si>
+    <t>8) BONUS:  Appliquer un modèle de moyenne mobile (aka moyenne glissante) à la versione intégré de la série</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +167,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,16 +1396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>99547</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>79401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,7 +1421,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1417,8 +1435,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5928360" y="1104900"/>
-          <a:ext cx="5304007" cy="3817620"/>
+          <a:off x="6659880" y="1303020"/>
+          <a:ext cx="4552341" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,50 +1501,3782 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86692</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8586355" cy="2677636"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C40AC06-A245-4E74-B7AA-E2F76238020E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1290205" y="2788328"/>
+              <a:ext cx="8586355" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ACF (lag h) = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>, </m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑡𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>.</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑒𝑣</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑡𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>.</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑒𝑣</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C40AC06-A245-4E74-B7AA-E2F76238020E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1290205" y="2788328"/>
+              <a:ext cx="8586355" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ACF (lag h) = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ)))/(𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_𝑡)𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_(𝑡−ℎ)))</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>299952</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30928</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>643194</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AEDFA6-63EA-4A7C-BED1-6C81F0AFC3A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18016794" cy="10377055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="13515429" cy="2677636"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1070F1E7-021E-49F6-8DD8-2EE4CCE3363A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="299952" y="4173437"/>
+              <a:ext cx="13515429" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑡𝑑.𝐷𝑒v(X)= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="836967"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="836967"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>1</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:limLoc m:val="undOvr"/>
+                          <m:grow m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:srgbClr val="836967"/>
+                                  </a:solidFill>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fr-FR" sz="4000" i="1">
+                                      <a:solidFill>
+                                        <a:srgbClr val="836967"/>
+                                      </a:solidFill>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                                          <a:solidFill>
+                                            <a:srgbClr val="836967"/>
+                                          </a:solidFill>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>𝑡</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="fr-FR" sz="4000" i="0">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="fr-FR" sz="4000" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝜇</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:e>
+                      </m:nary>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜇</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="836967"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑁</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:limLoc m:val="undOvr"/>
+                      <m:grow m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑘</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" i="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>=1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑁</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:srgbClr val="836967"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:nary>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1070F1E7-021E-49F6-8DD8-2EE4CCE3363A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="299952" y="4173437"/>
+              <a:ext cx="13515429" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑡𝑑.𝐷𝑒v(X)= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁 ∑129_(𝑡=1)^𝑁▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡−𝜇)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁 ∑129_(𝑘=1)^𝑁▒𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡 </a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426348</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11169907" cy="720437"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766B4A69-F4F4-457B-AA3E-937E54281B51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="426348" y="1551708"/>
+              <a:ext cx="11169907" cy="720437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ≔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>é</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑖𝑒𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑟𝑖𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑣𝑒𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑎𝑔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="fr-FR" sz="4400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766B4A69-F4F4-457B-AA3E-937E54281B51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="426348" y="1551708"/>
+              <a:ext cx="11169907" cy="720437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋_(𝑡−ℎ)  ≔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑠é𝑟𝑖𝑒𝑠 𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑟𝑖𝑒 𝑎𝑣𝑒𝑐 𝑙𝑎𝑔 ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>159327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24245</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12211050" cy="2677636"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842199CA-AF39-4A15-9241-22571322D5E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="159327" y="5787736"/>
+              <a:ext cx="12211050" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:limLoc m:val="undOvr"/>
+                          <m:grow m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑡</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝜇</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                    </m:rPr>
+                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>X</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑡</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:limLoc m:val="undOvr"/>
+                          <m:grow m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑡</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="fr-FR" sz="4000" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝜇</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑋</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑡</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑁</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842199CA-AF39-4A15-9241-22571322D5E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="159327" y="5787736"/>
+              <a:ext cx="12211050" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑129_(𝑡=1)^𝑁▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑡−𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(X_𝑡 ))〗 ∑129_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡=1)^𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>▒〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−ℎ)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑋〗_(𝑡−ℎ))〗)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174418</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="15177407" cy="2677636"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="ZoneTexte 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E4D683-41D3-4CFD-9241-60FED4F1CA97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="174418" y="7869381"/>
+              <a:ext cx="15177407" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>PACF (lag h) = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="4000" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:endChr m:val="|"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑋</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑡</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>, </m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑋</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑡</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:d>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−1)</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> , …</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>, </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−1</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑡𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>.</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑒𝑣</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>|</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> ,…,  </m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−1</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆𝑡𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>.</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐷𝑒𝑣</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>|</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>,…,</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−1</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="fr-FR" sz="4000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="ZoneTexte 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E4D683-41D3-4CFD-9241-60FED4F1CA97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="174418" y="7869381"/>
+              <a:ext cx="15177407" cy="2677636"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>PACF (lag h) = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶𝑜𝑣𝑎𝑟𝑖𝑎𝑛𝑐𝑒(𝑋_𝑡, 𝑋_(𝑡−ℎ) ┤| 𝑋_(𝑡−(ℎ−1))  , …〖, 𝑋〗_(𝑡−1)))/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_𝑡 |𝑋_(𝑡−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,…,  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋_(𝑡−1))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑡𝑑.𝐷𝑒𝑣(𝑋_(𝑡−ℎ) |</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋_(𝑡−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>…</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋_(𝑡−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4000">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273948</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9867579" cy="720437"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="ZoneTexte 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F583E-E2E5-475A-A565-8FC059A51562}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1063657" y="471054"/>
+              <a:ext cx="9867579" cy="720437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ≔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>é</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑖𝑒𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑖𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> (</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑤𝑒𝑎𝑘𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-FR" sz="4400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>) </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="fr-FR" sz="4400">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="4400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="ZoneTexte 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F583E-E2E5-475A-A565-8FC059A51562}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1063657" y="471054"/>
+              <a:ext cx="9867579" cy="720437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ≔</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑠é𝑟𝑖𝑒𝑠 𝑠𝑡𝑎𝑡𝑖𝑜𝑛𝑛𝑎𝑖𝑟𝑒 (𝑤𝑒𝑎𝑘𝑙𝑦)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="4400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="4400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1831,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C1348-6A63-4057-91CF-277C8560F8D3}">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,45 +5618,117 @@
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3487,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18FE7CD-D069-4FBC-B153-2FF9564FE811}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
